--- a/data/IEEE9/Market Data/ieee9_market_data_2031.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2031.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF1780-AAA2-4327-8DD1-888C41DB1ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C3C6F8-CD8A-4064-B1B2-6B25CBCB9457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1350" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,15 +1325,15 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>1.056395832700993</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1403,9 +1403,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>45.097538098005387</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>44.062270181958418</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>46.13280601405237</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1811,7 +1811,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1851,9 +1851,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>50.828925655338558</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>46.481856803773987</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>55.175994506903152</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2259,7 +2259,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2299,9 +2299,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>40.290937059215871</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>44.896822889792205</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>47.537812471544683</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2707,7 +2707,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2747,9 +2747,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>39.694073413739808</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>44.439491527218728</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>44.375227447396085</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3155,7 +3155,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
